--- a/WorkHours.xlsx
+++ b/WorkHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\ElectricBike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFFC7022-5246-4423-8B83-A85A7DD7503E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A3099C-D6AF-4E0C-8DEE-78B9142E97AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="10044" xr2:uid="{DF5D3E55-89BE-43FB-89B3-FBB64C504FC9}"/>
   </bookViews>
@@ -393,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB6F9F-540E-4E3D-AD5F-C375F93B19DB}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,15 +409,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44607</v>
       </c>
       <c r="B2">
         <v>3.5</v>
       </c>
+      <c r="C2">
+        <f>SUM(B2:B1000)</f>
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44608</v>
       </c>

--- a/WorkHours.xlsx
+++ b/WorkHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\ElectricBike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A3099C-D6AF-4E0C-8DEE-78B9142E97AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF3910-8599-429B-8198-1936884B163D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="10044" xr2:uid="{DF5D3E55-89BE-43FB-89B3-FBB64C504FC9}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB6F9F-540E-4E3D-AD5F-C375F93B19DB}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,7 +418,7 @@
       </c>
       <c r="C2">
         <f>SUM(B2:B1000)</f>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -427,6 +427,14 @@
       </c>
       <c r="B3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
